--- a/4-implementation/2-unit-test/TestPlan-Template-EN.xlsx
+++ b/4-implementation/2-unit-test/TestPlan-Template-EN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tvkai\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tvkai\Desktop\hust\design-develop-software\TKXDPM.VP.20231-20205208.TranVinhKhanh\4-implementation\2-unit-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C325E184-502F-469A-8DFC-C9D9FEBF8EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDFAE2A-F29F-477F-ACB9-4AA98362B17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="3" activeTab="7" xr2:uid="{BA49DA37-6C72-4F0C-8F29-A460207C1BDB}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="3" activeTab="5" xr2:uid="{BA49DA37-6C72-4F0C-8F29-A460207C1BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="133">
   <si>
     <t>1. Introduction</t>
   </si>
@@ -116,10 +116,6 @@
   </si>
   <si>
     <t>3. Testing Approach/Strategy</t>
-  </si>
-  <si>
-    <t>&lt; Describe the overall approach that will be used to test all functions, features, and requirements of the automated system, application, or situation for which the Test Plan applies. As applicable to this Test Plan, describe the measures to be taken to ensure all aspects of the system are successfully tested and can be implemented. Document key aspects of the testing approach, such as content, methodology, prioritization, and progression of development, validation, implementation, and operational testing activities to be performed during the corresponding lifecycle phases
-For example, will some unit and application integration testing be done, and then some more development, and so on? Is a prototype being built that will be usability tested before the releasable software is developed? Also include plans for testing related documentation (e.g., installation instructions, User Manual, Operations &amp; Maintenance (O&amp;M) Manual, Training Artifacts, etc.) and for conducting applicable readiness reviews. Also, if applicable, describe how reuse will be applied to the testing effort to make testing more efficient and less costly.&gt;</t>
   </si>
   <si>
     <t>USE CASE ID</t>
@@ -433,21 +429,12 @@
     <t>0 - As expected</t>
   </si>
   <si>
-    <t>207000 - As expected</t>
-  </si>
-  <si>
     <t>price:1000, weight: 2.5 , quantity: 3</t>
   </si>
   <si>
     <t>city: hà nội, rushOrderSupport: false</t>
   </si>
   <si>
-    <t>deliverInfo</t>
-  </si>
-  <si>
-    <t>227000 - As expected</t>
-  </si>
-  <si>
     <t>5.4. Test Case Specification for "calculateShippingFeeTest"</t>
   </si>
   <si>
@@ -482,6 +469,12 @@
   </si>
   <si>
     <t>false - As expected</t>
+  </si>
+  <si>
+    <t>94500 - As expected</t>
+  </si>
+  <si>
+    <t>Kĩ thuật kiểm thử hộp trắng cho các lớp controller PlaceOrderController và PlaceRushOrderController, phủ PC và phủ CC</t>
   </si>
 </sst>
 </file>
@@ -696,7 +689,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -840,15 +833,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -864,7 +848,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -960,6 +944,50 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -987,6 +1015,24 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -996,242 +1042,203 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2123,176 +2130,176 @@
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2316,7 +2323,7 @@
   <sheetData>
     <row r="4" spans="4:5" ht="16.899999999999999" x14ac:dyDescent="0.5">
       <c r="E4" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="4:5" x14ac:dyDescent="0.45">
@@ -2324,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="4:5" x14ac:dyDescent="0.45">
@@ -2332,7 +2339,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.45">
@@ -2340,7 +2347,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="4:5" x14ac:dyDescent="0.45">
@@ -2348,7 +2355,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="4:5" x14ac:dyDescent="0.45">
@@ -2356,7 +2363,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2395,96 +2402,96 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="A3" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
     </row>
     <row r="13" spans="1:8" ht="16.899999999999999" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
@@ -2492,116 +2499,116 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
     </row>
     <row r="15" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
     </row>
     <row r="16" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
     </row>
     <row r="17" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
     </row>
     <row r="18" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
     </row>
     <row r="19" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
     </row>
     <row r="20" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
     </row>
     <row r="21" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
     </row>
     <row r="22" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
     </row>
     <row r="23" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
@@ -2619,66 +2626,66 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
     </row>
     <row r="28" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
     </row>
     <row r="29" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
     </row>
     <row r="30" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
     </row>
     <row r="31" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
     </row>
     <row r="32" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
     </row>
     <row r="33" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="2"/>
@@ -2703,156 +2710,156 @@
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
+      <c r="A35" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
     </row>
     <row r="38" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="41"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="41"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="41"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" s="41"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45" s="41"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="41"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A47" s="41"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A48" s="41"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
+      <c r="A48" s="57"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A49" s="41"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2892,96 +2899,96 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
     </row>
     <row r="13" spans="1:8" ht="16.899999999999999" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
@@ -2994,56 +3001,56 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
     </row>
     <row r="16" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
     </row>
     <row r="17" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
     </row>
     <row r="18" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
     </row>
     <row r="19" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
     </row>
     <row r="20" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="9"/>
@@ -3068,136 +3075,136 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
     </row>
     <row r="23" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
     </row>
     <row r="24" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
     </row>
     <row r="27" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
+      <c r="A34" s="60"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="12" t="s">
@@ -3212,46 +3219,46 @@
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
     </row>
     <row r="38" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
     </row>
     <row r="39" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
@@ -3390,8 +3397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C5B2C3-429F-4460-A64A-54B636503623}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H22"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3402,216 +3409,216 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="A2" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3624,7 +3631,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8917CA0A-EA61-4F09-84F9-F925FF2C64CE}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -3639,95 +3646,95 @@
   <sheetData>
     <row r="1" spans="1:10" ht="16.899999999999999" x14ac:dyDescent="0.5">
       <c r="A1" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:10" ht="16.899999999999999" x14ac:dyDescent="0.5">
       <c r="A2" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="16.899999999999999" x14ac:dyDescent="0.5">
       <c r="A3" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="41.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53"/>
+      <c r="A4" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="F4" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="G4" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="H4" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="33" t="s">
-        <v>28</v>
-      </c>
       <c r="I4" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="33" t="s">
         <v>83</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="18" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="17">
-        <f>COUNTIF(D6:D11,"=x")</f>
+        <f t="shared" ref="D5:J5" si="0">COUNTIF(D6:D11,"=x")</f>
         <v>0</v>
       </c>
       <c r="E5" s="17">
-        <f>COUNTIF(E6:E11,"=x")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5" s="17">
-        <f>COUNTIF(F6:F11,"=x")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G5" s="17">
-        <f>COUNTIF(G6:G11,"=x")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="17">
-        <f>COUNTIF(H6:H11,"=x")</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I5" s="17">
-        <f>COUNTIF(I6:I11,"=x")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="77">
-        <f>COUNTIF(J6:J11,"=x")</f>
+      <c r="J5" s="39">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="17">
         <f>COUNTIF(D6:S6,"=x")</f>
@@ -3738,20 +3745,20 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="17">
-        <f t="shared" ref="C7:C11" si="0">COUNTIF(D7:S7,"=x")</f>
+        <f t="shared" ref="C7:C11" si="1">COUNTIF(D7:S7,"=x")</f>
         <v>1</v>
       </c>
       <c r="D7" s="19"/>
@@ -3759,20 +3766,20 @@
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D8" s="19"/>
@@ -3780,20 +3787,20 @@
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D9" s="19"/>
@@ -3801,17 +3808,17 @@
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="17">
         <f>COUNTIF(D10:S10,"=x")</f>
@@ -3824,18 +3831,18 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D11" s="19"/>
@@ -3845,54 +3852,54 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A14" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="48"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="70"/>
     </row>
     <row r="16" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="72"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="71" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="73"/>
-    </row>
-    <row r="17" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="67"/>
+    </row>
+    <row r="17" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="22"/>
@@ -3901,188 +3908,181 @@
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
     </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A18" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="48"/>
-    </row>
-    <row r="20" spans="1:11" ht="43.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D19" s="69"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="70"/>
+    </row>
+    <row r="20" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="69"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="50"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="76"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="76"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="76"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="76"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="76"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="75"/>
-    </row>
-    <row r="26" spans="1:11" ht="16.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="76"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="75"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27" s="76"/>
-      <c r="B27" s="76"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="75"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="76"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="75"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="76"/>
-      <c r="B29" s="76"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="75"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="76"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="75"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" s="76"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="75"/>
-    </row>
-    <row r="32" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+      <c r="C20" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="72"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="75"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+    </row>
+    <row r="26" spans="1:10" ht="16.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+    </row>
+    <row r="32" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="22"/>
@@ -4090,23 +4090,22 @@
       <c r="E32" s="22"/>
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="75"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
     </row>
     <row r="33" ht="19.25" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="F19:G19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="1.1811023622047243" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4118,8 +4117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF123E7-2EB5-48C5-B5DD-E8CB50F3BF35}">
   <dimension ref="A1:J180"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A106" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D183" sqref="D183"/>
+    <sheetView view="pageLayout" topLeftCell="A95" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J107" sqref="J107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4137,28 +4136,28 @@
   <sheetData>
     <row r="1" spans="1:10" ht="16.899999999999999" x14ac:dyDescent="0.5">
       <c r="A1" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="64"/>
+      <c r="A3" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="95"/>
       <c r="C3" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="64"/>
+        <v>33</v>
+      </c>
+      <c r="D3" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="95"/>
       <c r="F3" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
@@ -4166,24 +4165,24 @@
       <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="95"/>
+      <c r="C4" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="66" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="96" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="27"/>
@@ -4198,12 +4197,12 @@
       <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="57"/>
+      <c r="A6" s="88" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="89"/>
       <c r="C6" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
@@ -4226,71 +4225,71 @@
       <c r="J7" s="27"/>
     </row>
     <row r="8" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="89"/>
+      <c r="C8" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="27" t="s">
+      <c r="E8" s="89"/>
+      <c r="F8" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="60"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="92"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
       <c r="C9" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="H10" s="96"/>
+        <v>54</v>
+      </c>
+      <c r="B10" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="H10" s="46"/>
     </row>
     <row r="11" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="30">
         <v>1</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
     </row>
     <row r="12" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="30">
         <v>2</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="27"/>
@@ -4306,293 +4305,284 @@
     </row>
     <row r="14" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="103" t="s">
-        <v>93</v>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="51" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="30">
         <v>1</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="97" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="97"/>
+      <c r="D15" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
       <c r="J15" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="30">
         <v>2</v>
       </c>
-      <c r="B16" s="80" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="89" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
+      <c r="B16" s="97" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="97"/>
+      <c r="D16" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="30">
         <v>3</v>
       </c>
-      <c r="B17" s="81" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="119" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="84" t="s">
-        <v>99</v>
-      </c>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
+      <c r="B17" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="80"/>
+      <c r="D17" s="111" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
       <c r="J17" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="30">
         <v>4</v>
       </c>
-      <c r="B18" s="81" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="83"/>
-      <c r="D18" s="93" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="94"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="102" t="s">
-        <v>99</v>
-      </c>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
+      <c r="B18" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="80"/>
+      <c r="D18" s="107" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="108"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
       <c r="J18" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="30">
         <v>5</v>
       </c>
-      <c r="B19" s="81" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="88" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="86"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="85" t="s">
-        <v>99</v>
-      </c>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
+      <c r="B19" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="80"/>
+      <c r="D19" s="103" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="104"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
       <c r="J19" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="30">
         <v>6</v>
       </c>
-      <c r="B20" s="81" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" s="82"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="85" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
+      <c r="B20" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="80"/>
+      <c r="D20" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="112"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
       <c r="J20" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="30">
         <v>7</v>
       </c>
-      <c r="B21" s="81" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="83"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="85" t="s">
-        <v>99</v>
-      </c>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
+      <c r="B21" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="80"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
       <c r="J21" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="32"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="121"/>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
       <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23" s="104"/>
-      <c r="B23" s="104"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
+      <c r="A23" s="110"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" s="75"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
+      <c r="C24" s="32"/>
     </row>
     <row r="25" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="108"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="112"/>
+      <c r="A25" s="114"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="120"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" s="109"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="112"/>
+      <c r="A26" s="115"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="120"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="120"/>
     </row>
     <row r="27" spans="1:10" ht="28.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="115"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="116"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="96"/>
     </row>
     <row r="28" spans="1:10" ht="28.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="115"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="117"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="116"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="96"/>
     </row>
     <row r="29" spans="1:10" ht="28.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="115"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="117"/>
-      <c r="D29" s="116"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="116"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="116"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="96"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="64"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A33" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="95"/>
       <c r="C33" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="64"/>
+        <v>34</v>
+      </c>
+      <c r="D33" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="95"/>
       <c r="F33" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
@@ -4600,24 +4590,24 @@
       <c r="J33" s="27"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A34" s="63" t="s">
+      <c r="A34" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="95"/>
+      <c r="C34" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="64"/>
-      <c r="C34" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="64"/>
-      <c r="F34" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="96"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="27"/>
@@ -4632,12 +4622,12 @@
       <c r="J35" s="27"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A36" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="57"/>
+      <c r="A36" s="88" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="89"/>
       <c r="C36" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
@@ -4660,71 +4650,71 @@
       <c r="J37" s="27"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A38" s="58" t="s">
+      <c r="A38" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="89"/>
+      <c r="C38" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="57"/>
-      <c r="C38" s="27" t="s">
+      <c r="E38" s="89"/>
+      <c r="F38" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="57"/>
-      <c r="F38" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="60"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="91"/>
+      <c r="I38" s="91"/>
+      <c r="J38" s="92"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="28"/>
       <c r="B39" s="28"/>
       <c r="C39" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J39" s="27"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="H40" s="96"/>
+        <v>54</v>
+      </c>
+      <c r="B40" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="H40" s="46"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="30">
         <v>1</v>
       </c>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="101"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="30">
         <v>2</v>
       </c>
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79"/>
-      <c r="I42" s="79"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="27"/>
@@ -4740,197 +4730,197 @@
     </row>
     <row r="44" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A44" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="87"/>
+      <c r="D44" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="H44" s="97"/>
-      <c r="I44" s="97"/>
-      <c r="J44" s="103" t="s">
-        <v>93</v>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="51" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" s="30">
         <v>1</v>
       </c>
-      <c r="B45" s="80" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" s="80"/>
-      <c r="D45" s="118" t="s">
-        <v>101</v>
-      </c>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="H45" s="78"/>
-      <c r="I45" s="78"/>
+      <c r="B45" s="97" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="97"/>
+      <c r="D45" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
       <c r="J45" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="30">
         <v>2</v>
       </c>
-      <c r="B46" s="80" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="80"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="89" t="s">
-        <v>99</v>
-      </c>
-      <c r="H46" s="98"/>
-      <c r="I46" s="98"/>
+      <c r="B46" s="97" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="97"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
       <c r="J46" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" s="30">
         <v>3</v>
       </c>
-      <c r="B47" s="81" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" s="83"/>
-      <c r="D47" s="120">
+      <c r="B47" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="80"/>
+      <c r="D47" s="101">
         <v>12345</v>
       </c>
-      <c r="E47" s="120"/>
-      <c r="F47" s="120"/>
-      <c r="G47" s="84" t="s">
-        <v>99</v>
-      </c>
-      <c r="H47" s="99"/>
-      <c r="I47" s="99"/>
+      <c r="E47" s="101"/>
+      <c r="F47" s="101"/>
+      <c r="G47" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
       <c r="J47" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="30">
         <v>4</v>
       </c>
-      <c r="B48" s="81" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="83"/>
-      <c r="D48" s="90">
+      <c r="B48" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="80"/>
+      <c r="D48" s="98">
         <v>1234567890</v>
       </c>
-      <c r="E48" s="91"/>
-      <c r="F48" s="92"/>
-      <c r="G48" s="102" t="s">
-        <v>97</v>
-      </c>
-      <c r="H48" s="100"/>
-      <c r="I48" s="100"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="100"/>
+      <c r="G48" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
       <c r="J48" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" s="30">
         <v>5</v>
       </c>
-      <c r="B49" s="81" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" s="83"/>
-      <c r="D49" s="88">
+      <c r="B49" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="80"/>
+      <c r="D49" s="103">
         <v>9876543210</v>
       </c>
-      <c r="E49" s="86"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="85" t="s">
-        <v>97</v>
-      </c>
-      <c r="H49" s="99"/>
-      <c r="I49" s="99"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
       <c r="J49" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" s="30">
         <v>6</v>
       </c>
-      <c r="B50" s="81" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="83"/>
-      <c r="D50" s="121" t="s">
+      <c r="B50" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="E50" s="86"/>
-      <c r="F50" s="87"/>
-      <c r="G50" s="85" t="s">
-        <v>99</v>
-      </c>
-      <c r="H50" s="85"/>
-      <c r="I50" s="85"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="104"/>
+      <c r="F50" s="105"/>
+      <c r="G50" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
       <c r="J50" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" s="30">
         <v>7</v>
       </c>
-      <c r="B51" s="81" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51" s="83"/>
-      <c r="D51" s="121">
+      <c r="B51" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="80"/>
+      <c r="D51" s="106">
         <v>12345678910</v>
       </c>
-      <c r="E51" s="86"/>
-      <c r="F51" s="87"/>
-      <c r="G51" s="85" t="s">
-        <v>99</v>
-      </c>
-      <c r="H51" s="85"/>
-      <c r="I51" s="85"/>
+      <c r="E51" s="104"/>
+      <c r="F51" s="105"/>
+      <c r="G51" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
       <c r="J51" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" s="25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A66" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="B66" s="64"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A66" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="95"/>
       <c r="C66" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D66" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="E66" s="64"/>
+        <v>58</v>
+      </c>
+      <c r="D66" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="95"/>
       <c r="F66" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
@@ -4938,24 +4928,24 @@
       <c r="J66" s="27"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A67" s="63" t="s">
+      <c r="A67" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="95"/>
+      <c r="C67" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="B67" s="64"/>
-      <c r="C67" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D67" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="E67" s="64"/>
-      <c r="F67" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="G67" s="66"/>
-      <c r="H67" s="66"/>
-      <c r="I67" s="66"/>
-      <c r="J67" s="66"/>
+      <c r="E67" s="95"/>
+      <c r="F67" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="G67" s="96"/>
+      <c r="H67" s="96"/>
+      <c r="I67" s="96"/>
+      <c r="J67" s="96"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" s="27"/>
@@ -4970,12 +4960,12 @@
       <c r="J68" s="27"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A69" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="B69" s="57"/>
+      <c r="A69" s="88" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" s="89"/>
       <c r="C69" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D69" s="28"/>
       <c r="E69" s="28"/>
@@ -4998,71 +4988,71 @@
       <c r="J70" s="27"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A71" s="58" t="s">
+      <c r="A71" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" s="89"/>
+      <c r="C71" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="B71" s="57"/>
-      <c r="C71" s="27" t="s">
+      <c r="E71" s="89"/>
+      <c r="F71" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="D71" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="E71" s="57"/>
-      <c r="F71" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="G71" s="59"/>
-      <c r="H71" s="59"/>
-      <c r="I71" s="59"/>
-      <c r="J71" s="60"/>
+      <c r="G71" s="91"/>
+      <c r="H71" s="91"/>
+      <c r="I71" s="91"/>
+      <c r="J71" s="92"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" s="28"/>
       <c r="B72" s="28"/>
       <c r="C72" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J72" s="27"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B73" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="C73" s="61"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="61"/>
-      <c r="F73" s="61"/>
-      <c r="H73" s="96"/>
+        <v>54</v>
+      </c>
+      <c r="B73" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="C73" s="93"/>
+      <c r="D73" s="93"/>
+      <c r="E73" s="93"/>
+      <c r="F73" s="93"/>
+      <c r="H73" s="46"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" s="30">
         <v>1</v>
       </c>
-      <c r="B74" s="54"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="54"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="101"/>
-      <c r="H74" s="79"/>
-      <c r="I74" s="79"/>
+      <c r="B74" s="86"/>
+      <c r="C74" s="86"/>
+      <c r="D74" s="86"/>
+      <c r="E74" s="86"/>
+      <c r="F74" s="86"/>
+      <c r="G74" s="49"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" s="30">
         <v>2</v>
       </c>
-      <c r="B75" s="54"/>
-      <c r="C75" s="54"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="54"/>
-      <c r="F75" s="54"/>
-      <c r="G75" s="79"/>
-      <c r="H75" s="79"/>
-      <c r="I75" s="79"/>
+      <c r="B75" s="86"/>
+      <c r="C75" s="86"/>
+      <c r="D75" s="86"/>
+      <c r="E75" s="86"/>
+      <c r="F75" s="86"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" s="27"/>
@@ -5078,178 +5068,178 @@
     </row>
     <row r="77" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A77" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B77" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" s="87"/>
+      <c r="D77" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="E77" s="87"/>
+      <c r="F77" s="87"/>
+      <c r="G77" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C77" s="62"/>
-      <c r="D77" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="E77" s="62"/>
-      <c r="F77" s="62"/>
-      <c r="G77" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="H77" s="97"/>
-      <c r="I77" s="97"/>
-      <c r="J77" s="103" t="s">
-        <v>93</v>
+      <c r="H77" s="47"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="51" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" s="30">
         <v>1</v>
       </c>
-      <c r="B78" s="80" t="s">
+      <c r="B78" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78" s="97"/>
+      <c r="D78" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="C78" s="80"/>
-      <c r="D78" s="118" t="s">
-        <v>106</v>
-      </c>
-      <c r="E78" s="65"/>
-      <c r="F78" s="65"/>
-      <c r="G78" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="H78" s="78"/>
-      <c r="I78" s="78"/>
+      <c r="E78" s="82"/>
+      <c r="F78" s="82"/>
+      <c r="G78" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="H78" s="40"/>
+      <c r="I78" s="40"/>
       <c r="J78" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="30">
         <v>2</v>
       </c>
-      <c r="B79" s="80" t="s">
-        <v>105</v>
-      </c>
-      <c r="C79" s="80"/>
-      <c r="D79" s="118" t="s">
-        <v>107</v>
-      </c>
-      <c r="E79" s="65"/>
-      <c r="F79" s="65"/>
-      <c r="G79" s="89" t="s">
-        <v>99</v>
-      </c>
-      <c r="H79" s="98"/>
-      <c r="I79" s="98"/>
+      <c r="B79" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79" s="97"/>
+      <c r="D79" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="E79" s="82"/>
+      <c r="F79" s="82"/>
+      <c r="G79" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="H79" s="48"/>
+      <c r="I79" s="48"/>
       <c r="J79" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="30">
         <v>3</v>
       </c>
-      <c r="B80" s="80" t="s">
-        <v>105</v>
-      </c>
-      <c r="C80" s="80"/>
-      <c r="D80" s="120">
+      <c r="B80" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="C80" s="97"/>
+      <c r="D80" s="101">
         <v>1</v>
       </c>
-      <c r="E80" s="120"/>
-      <c r="F80" s="120"/>
-      <c r="G80" s="84" t="s">
-        <v>99</v>
-      </c>
-      <c r="H80" s="99"/>
-      <c r="I80" s="99"/>
+      <c r="E80" s="101"/>
+      <c r="F80" s="101"/>
+      <c r="G80" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="H80" s="43"/>
+      <c r="I80" s="43"/>
       <c r="J80" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="30">
         <v>4</v>
       </c>
-      <c r="B81" s="80" t="s">
-        <v>105</v>
-      </c>
-      <c r="C81" s="80"/>
-      <c r="D81" s="90" t="s">
-        <v>94</v>
-      </c>
-      <c r="E81" s="91"/>
-      <c r="F81" s="92"/>
-      <c r="G81" s="102" t="s">
-        <v>110</v>
-      </c>
-      <c r="H81" s="100"/>
-      <c r="I81" s="100"/>
+      <c r="B81" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="C81" s="97"/>
+      <c r="D81" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="E81" s="99"/>
+      <c r="F81" s="100"/>
+      <c r="G81" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="H81" s="45"/>
+      <c r="I81" s="45"/>
       <c r="J81" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="30">
         <v>5</v>
       </c>
-      <c r="B82" s="80" t="s">
-        <v>105</v>
-      </c>
-      <c r="C82" s="80"/>
-      <c r="D82" s="88" t="s">
-        <v>108</v>
-      </c>
-      <c r="E82" s="86"/>
-      <c r="F82" s="87"/>
-      <c r="G82" s="85" t="s">
-        <v>99</v>
-      </c>
-      <c r="H82" s="99"/>
-      <c r="I82" s="99"/>
+      <c r="B82" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="C82" s="97"/>
+      <c r="D82" s="103" t="s">
+        <v>107</v>
+      </c>
+      <c r="E82" s="104"/>
+      <c r="F82" s="105"/>
+      <c r="G82" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="H82" s="43"/>
+      <c r="I82" s="43"/>
       <c r="J82" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="30">
         <v>6</v>
       </c>
-      <c r="B83" s="80" t="s">
-        <v>105</v>
-      </c>
-      <c r="C83" s="80"/>
-      <c r="D83" s="88" t="s">
-        <v>109</v>
-      </c>
-      <c r="E83" s="86"/>
-      <c r="F83" s="87"/>
-      <c r="G83" s="85" t="s">
-        <v>99</v>
-      </c>
-      <c r="H83" s="85"/>
-      <c r="I83" s="85"/>
+      <c r="B83" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="C83" s="97"/>
+      <c r="D83" s="103" t="s">
+        <v>108</v>
+      </c>
+      <c r="E83" s="104"/>
+      <c r="F83" s="105"/>
+      <c r="G83" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="H83" s="42"/>
+      <c r="I83" s="42"/>
       <c r="J83" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95" s="25" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A96" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="B96" s="64"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A96" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="B96" s="95"/>
       <c r="C96" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D96" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="E96" s="64"/>
+        <v>59</v>
+      </c>
+      <c r="D96" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="E96" s="95"/>
       <c r="F96" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
@@ -5257,24 +5247,24 @@
       <c r="J96" s="27"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A97" s="63" t="s">
+      <c r="A97" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="B97" s="95"/>
+      <c r="C97" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D97" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="B97" s="64"/>
-      <c r="C97" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D97" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="E97" s="64"/>
-      <c r="F97" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="G97" s="66"/>
-      <c r="H97" s="66"/>
-      <c r="I97" s="66"/>
-      <c r="J97" s="66"/>
+      <c r="E97" s="95"/>
+      <c r="F97" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="G97" s="96"/>
+      <c r="H97" s="96"/>
+      <c r="I97" s="96"/>
+      <c r="J97" s="96"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98" s="27"/>
@@ -5289,12 +5279,12 @@
       <c r="J98" s="27"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A99" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="B99" s="57"/>
+      <c r="A99" s="88" t="s">
+        <v>40</v>
+      </c>
+      <c r="B99" s="89"/>
       <c r="C99" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D99" s="28"/>
       <c r="E99" s="28"/>
@@ -5317,71 +5307,71 @@
       <c r="J100" s="27"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A101" s="58" t="s">
+      <c r="A101" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="B101" s="89"/>
+      <c r="C101" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D101" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="B101" s="57"/>
-      <c r="C101" s="27" t="s">
+      <c r="E101" s="89"/>
+      <c r="F101" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="D101" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="E101" s="57"/>
-      <c r="F101" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="G101" s="59"/>
-      <c r="H101" s="59"/>
-      <c r="I101" s="59"/>
-      <c r="J101" s="60"/>
+      <c r="G101" s="91"/>
+      <c r="H101" s="91"/>
+      <c r="I101" s="91"/>
+      <c r="J101" s="92"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102" s="28"/>
       <c r="B102" s="28"/>
       <c r="C102" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J102" s="27"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B103" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="C103" s="61"/>
-      <c r="D103" s="61"/>
-      <c r="E103" s="61"/>
-      <c r="F103" s="61"/>
-      <c r="H103" s="96"/>
+        <v>54</v>
+      </c>
+      <c r="B103" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="C103" s="93"/>
+      <c r="D103" s="93"/>
+      <c r="E103" s="93"/>
+      <c r="F103" s="93"/>
+      <c r="H103" s="46"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A104" s="30">
         <v>1</v>
       </c>
-      <c r="B104" s="54"/>
-      <c r="C104" s="54"/>
-      <c r="D104" s="54"/>
-      <c r="E104" s="54"/>
-      <c r="F104" s="54"/>
-      <c r="G104" s="101"/>
-      <c r="H104" s="79"/>
-      <c r="I104" s="79"/>
+      <c r="B104" s="86"/>
+      <c r="C104" s="86"/>
+      <c r="D104" s="86"/>
+      <c r="E104" s="86"/>
+      <c r="F104" s="86"/>
+      <c r="G104" s="49"/>
+      <c r="H104" s="27"/>
+      <c r="I104" s="27"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A105" s="30">
         <v>2</v>
       </c>
-      <c r="B105" s="54"/>
-      <c r="C105" s="54"/>
-      <c r="D105" s="54"/>
-      <c r="E105" s="54"/>
-      <c r="F105" s="54"/>
-      <c r="G105" s="79"/>
-      <c r="H105" s="79"/>
-      <c r="I105" s="79"/>
+      <c r="B105" s="86"/>
+      <c r="C105" s="86"/>
+      <c r="D105" s="86"/>
+      <c r="E105" s="86"/>
+      <c r="F105" s="86"/>
+      <c r="G105" s="27"/>
+      <c r="H105" s="27"/>
+      <c r="I105" s="27"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A106" s="27"/>
@@ -5397,207 +5387,189 @@
     </row>
     <row r="107" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A107" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B107" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B107" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="C107" s="87"/>
+      <c r="D107" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="E107" s="87"/>
+      <c r="F107" s="87"/>
+      <c r="G107" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C107" s="62"/>
-      <c r="D107" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="E107" s="62"/>
-      <c r="F107" s="62"/>
-      <c r="G107" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="H107" s="97"/>
-      <c r="I107" s="97"/>
-      <c r="J107" s="103" t="s">
-        <v>93</v>
+      <c r="H107" s="47"/>
+      <c r="I107" s="47"/>
+      <c r="J107" s="51" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A108" s="122">
+      <c r="A108" s="76">
         <v>1</v>
       </c>
-      <c r="B108" s="81" t="s">
+      <c r="B108" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="C108" s="80"/>
+      <c r="D108" s="81" t="s">
+        <v>113</v>
+      </c>
+      <c r="E108" s="82"/>
+      <c r="F108" s="82"/>
+      <c r="G108" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="H108" s="40"/>
+      <c r="I108" s="40"/>
+      <c r="J108" s="76" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A109" s="77"/>
+      <c r="B109" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="C108" s="83"/>
-      <c r="D108" s="118" t="s">
+      <c r="C109" s="80"/>
+      <c r="D109" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="E108" s="65"/>
-      <c r="F108" s="65"/>
-      <c r="G108" s="125" t="s">
+      <c r="E109" s="82"/>
+      <c r="F109" s="82"/>
+      <c r="G109" s="84"/>
+      <c r="H109" s="48"/>
+      <c r="I109" s="48"/>
+      <c r="J109" s="77"/>
+    </row>
+    <row r="110" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A110" s="78"/>
+      <c r="B110" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="C110" s="80"/>
+      <c r="D110" s="101" t="s">
+        <v>115</v>
+      </c>
+      <c r="E110" s="101"/>
+      <c r="F110" s="101"/>
+      <c r="G110" s="85"/>
+      <c r="H110" s="43"/>
+      <c r="I110" s="43"/>
+      <c r="J110" s="78"/>
+    </row>
+    <row r="111" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A111" s="129">
+        <v>2</v>
+      </c>
+      <c r="B111" s="97" t="s">
+        <v>110</v>
+      </c>
+      <c r="C111" s="97"/>
+      <c r="D111" s="130" t="s">
         <v>117</v>
       </c>
-      <c r="H108" s="78"/>
-      <c r="I108" s="78"/>
-      <c r="J108" s="122" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A109" s="123"/>
-      <c r="B109" s="81" t="s">
+      <c r="E111" s="131"/>
+      <c r="F111" s="131"/>
+      <c r="G111" s="132" t="s">
+        <v>131</v>
+      </c>
+      <c r="H111" s="133"/>
+      <c r="I111" s="133"/>
+      <c r="J111" s="129" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A112" s="129"/>
+      <c r="B112" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="C112" s="97"/>
+      <c r="D112" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="E112" s="82"/>
+      <c r="F112" s="82"/>
+      <c r="G112" s="132"/>
+      <c r="H112" s="37"/>
+      <c r="I112" s="37"/>
+      <c r="J112" s="129"/>
+    </row>
+    <row r="113" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A113" s="76"/>
+      <c r="B113" s="134" t="s">
         <v>112</v>
       </c>
-      <c r="C109" s="83"/>
-      <c r="D109" s="118" t="s">
-        <v>115</v>
-      </c>
-      <c r="E109" s="65"/>
-      <c r="F109" s="65"/>
-      <c r="G109" s="126"/>
-      <c r="H109" s="98"/>
-      <c r="I109" s="98"/>
-      <c r="J109" s="123"/>
-    </row>
-    <row r="110" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A110" s="124"/>
-      <c r="B110" s="81" t="s">
-        <v>113</v>
-      </c>
-      <c r="C110" s="83"/>
-      <c r="D110" s="120" t="s">
-        <v>116</v>
-      </c>
-      <c r="E110" s="120"/>
-      <c r="F110" s="120"/>
-      <c r="G110" s="127"/>
-      <c r="H110" s="99"/>
-      <c r="I110" s="99"/>
-      <c r="J110" s="124"/>
-    </row>
-    <row r="111" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A111" s="122">
-        <v>2</v>
-      </c>
-      <c r="B111" s="81" t="s">
-        <v>111</v>
-      </c>
-      <c r="C111" s="83"/>
-      <c r="D111" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="E111" s="91"/>
-      <c r="F111" s="92"/>
-      <c r="G111" s="128" t="s">
+      <c r="C113" s="134"/>
+      <c r="D113" s="135" t="s">
         <v>118</v>
       </c>
-      <c r="H111" s="100"/>
-      <c r="I111" s="100"/>
-      <c r="J111" s="122" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A112" s="123"/>
-      <c r="B112" s="81" t="s">
-        <v>112</v>
-      </c>
-      <c r="C112" s="83"/>
-      <c r="D112" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="E112" s="86"/>
-      <c r="F112" s="87"/>
-      <c r="G112" s="129"/>
-      <c r="H112" s="99"/>
-      <c r="I112" s="99"/>
-      <c r="J112" s="123"/>
-    </row>
-    <row r="113" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A113" s="124"/>
-      <c r="B113" s="81" t="s">
-        <v>113</v>
-      </c>
-      <c r="C113" s="83"/>
-      <c r="D113" s="121" t="s">
-        <v>120</v>
-      </c>
-      <c r="E113" s="86"/>
-      <c r="F113" s="87"/>
-      <c r="G113" s="130"/>
-      <c r="H113" s="85"/>
-      <c r="I113" s="85"/>
-      <c r="J113" s="124"/>
+      <c r="E113" s="135"/>
+      <c r="F113" s="135"/>
+      <c r="G113" s="136"/>
+      <c r="H113" s="137"/>
+      <c r="I113" s="137"/>
+      <c r="J113" s="76"/>
     </row>
     <row r="114" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A114" s="122">
-        <v>7</v>
-      </c>
-      <c r="B114" s="81" t="s">
-        <v>111</v>
-      </c>
-      <c r="C114" s="83"/>
-      <c r="D114" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="E114" s="91"/>
-      <c r="F114" s="92"/>
-      <c r="G114" s="131" t="s">
-        <v>122</v>
-      </c>
-      <c r="H114" s="85"/>
-      <c r="I114" s="85"/>
-      <c r="J114" s="122" t="s">
-        <v>44</v>
-      </c>
+      <c r="A114" s="102"/>
+      <c r="B114" s="138"/>
+      <c r="C114" s="138"/>
+      <c r="D114" s="139"/>
+      <c r="E114" s="140"/>
+      <c r="F114" s="140"/>
+      <c r="G114" s="102"/>
+      <c r="H114" s="122"/>
+      <c r="I114" s="122"/>
+      <c r="J114" s="102"/>
     </row>
     <row r="115" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="123"/>
-      <c r="B115" s="81" t="s">
-        <v>112</v>
-      </c>
-      <c r="C115" s="83"/>
-      <c r="D115" s="90" t="s">
-        <v>115</v>
-      </c>
-      <c r="E115" s="91"/>
-      <c r="F115" s="92"/>
-      <c r="G115" s="132"/>
-      <c r="H115" s="85"/>
-      <c r="I115" s="85"/>
+      <c r="B115" s="124"/>
+      <c r="C115" s="124"/>
+      <c r="D115" s="125"/>
+      <c r="E115" s="126"/>
+      <c r="F115" s="126"/>
+      <c r="G115" s="123"/>
+      <c r="H115" s="127"/>
+      <c r="I115" s="127"/>
       <c r="J115" s="123"/>
     </row>
     <row r="116" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A116" s="124"/>
-      <c r="B116" s="81" t="s">
-        <v>121</v>
-      </c>
-      <c r="C116" s="83"/>
-      <c r="D116" s="121" t="s">
-        <v>116</v>
-      </c>
-      <c r="E116" s="86"/>
-      <c r="F116" s="87"/>
-      <c r="G116" s="133"/>
-      <c r="H116" s="85"/>
-      <c r="I116" s="85"/>
-      <c r="J116" s="124"/>
+      <c r="A116" s="123"/>
+      <c r="B116" s="124"/>
+      <c r="C116" s="124"/>
+      <c r="D116" s="128"/>
+      <c r="E116" s="128"/>
+      <c r="F116" s="128"/>
+      <c r="G116" s="123"/>
+      <c r="H116" s="127"/>
+      <c r="I116" s="127"/>
+      <c r="J116" s="123"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A126" s="25" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A127" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="B127" s="64"/>
+      <c r="A127" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="B127" s="95"/>
       <c r="C127" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D127" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="E127" s="64"/>
+        <v>60</v>
+      </c>
+      <c r="D127" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="E127" s="95"/>
       <c r="F127" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
@@ -5605,24 +5577,24 @@
       <c r="J127" s="27"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A128" s="63" t="s">
+      <c r="A128" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="B128" s="95"/>
+      <c r="C128" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D128" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="B128" s="64"/>
-      <c r="C128" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D128" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="E128" s="64"/>
-      <c r="F128" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="G128" s="66"/>
-      <c r="H128" s="66"/>
-      <c r="I128" s="66"/>
-      <c r="J128" s="66"/>
+      <c r="E128" s="95"/>
+      <c r="F128" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="G128" s="96"/>
+      <c r="H128" s="96"/>
+      <c r="I128" s="96"/>
+      <c r="J128" s="96"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A129" s="27"/>
@@ -5637,12 +5609,12 @@
       <c r="J129" s="27"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A130" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="B130" s="57"/>
+      <c r="A130" s="88" t="s">
+        <v>40</v>
+      </c>
+      <c r="B130" s="89"/>
       <c r="C130" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D130" s="28"/>
       <c r="E130" s="28"/>
@@ -5665,71 +5637,71 @@
       <c r="J131" s="27"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A132" s="58" t="s">
+      <c r="A132" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="B132" s="89"/>
+      <c r="C132" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D132" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="B132" s="57"/>
-      <c r="C132" s="27" t="s">
+      <c r="E132" s="89"/>
+      <c r="F132" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="D132" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="E132" s="57"/>
-      <c r="F132" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="G132" s="59"/>
-      <c r="H132" s="59"/>
-      <c r="I132" s="59"/>
-      <c r="J132" s="60"/>
+      <c r="G132" s="91"/>
+      <c r="H132" s="91"/>
+      <c r="I132" s="91"/>
+      <c r="J132" s="92"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A133" s="28"/>
       <c r="B133" s="28"/>
       <c r="C133" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J133" s="27"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A134" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B134" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="C134" s="61"/>
-      <c r="D134" s="61"/>
-      <c r="E134" s="61"/>
-      <c r="F134" s="61"/>
-      <c r="H134" s="96"/>
+        <v>54</v>
+      </c>
+      <c r="B134" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="C134" s="93"/>
+      <c r="D134" s="93"/>
+      <c r="E134" s="93"/>
+      <c r="F134" s="93"/>
+      <c r="H134" s="46"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A135" s="30">
         <v>1</v>
       </c>
-      <c r="B135" s="54"/>
-      <c r="C135" s="54"/>
-      <c r="D135" s="54"/>
-      <c r="E135" s="54"/>
-      <c r="F135" s="54"/>
-      <c r="G135" s="101"/>
-      <c r="H135" s="79"/>
-      <c r="I135" s="79"/>
+      <c r="B135" s="86"/>
+      <c r="C135" s="86"/>
+      <c r="D135" s="86"/>
+      <c r="E135" s="86"/>
+      <c r="F135" s="86"/>
+      <c r="G135" s="49"/>
+      <c r="H135" s="27"/>
+      <c r="I135" s="27"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A136" s="30">
         <v>2</v>
       </c>
-      <c r="B136" s="54"/>
-      <c r="C136" s="54"/>
-      <c r="D136" s="54"/>
-      <c r="E136" s="54"/>
-      <c r="F136" s="54"/>
-      <c r="G136" s="79"/>
-      <c r="H136" s="79"/>
-      <c r="I136" s="79"/>
+      <c r="B136" s="86"/>
+      <c r="C136" s="86"/>
+      <c r="D136" s="86"/>
+      <c r="E136" s="86"/>
+      <c r="F136" s="86"/>
+      <c r="G136" s="27"/>
+      <c r="H136" s="27"/>
+      <c r="I136" s="27"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A137" s="27"/>
@@ -5745,135 +5717,135 @@
     </row>
     <row r="138" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A138" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B138" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B138" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="C138" s="87"/>
+      <c r="D138" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="E138" s="87"/>
+      <c r="F138" s="87"/>
+      <c r="G138" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C138" s="62"/>
-      <c r="D138" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="E138" s="62"/>
-      <c r="F138" s="62"/>
-      <c r="G138" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="H138" s="97"/>
-      <c r="I138" s="97"/>
-      <c r="J138" s="103" t="s">
-        <v>93</v>
+      <c r="H138" s="47"/>
+      <c r="I138" s="47"/>
+      <c r="J138" s="51" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A139" s="30">
         <v>1</v>
       </c>
-      <c r="B139" s="80" t="s">
-        <v>105</v>
-      </c>
-      <c r="C139" s="80"/>
-      <c r="D139" s="118" t="s">
-        <v>125</v>
-      </c>
-      <c r="E139" s="65"/>
-      <c r="F139" s="65"/>
-      <c r="G139" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="H139" s="78"/>
-      <c r="I139" s="78"/>
+      <c r="B139" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="C139" s="97"/>
+      <c r="D139" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="E139" s="82"/>
+      <c r="F139" s="82"/>
+      <c r="G139" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="H139" s="40"/>
+      <c r="I139" s="40"/>
       <c r="J139" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140" s="30">
         <v>2</v>
       </c>
-      <c r="B140" s="80" t="s">
-        <v>105</v>
-      </c>
-      <c r="C140" s="80"/>
-      <c r="D140" s="118" t="s">
-        <v>126</v>
-      </c>
-      <c r="E140" s="65"/>
-      <c r="F140" s="65"/>
-      <c r="G140" s="89" t="s">
-        <v>97</v>
-      </c>
-      <c r="H140" s="98"/>
-      <c r="I140" s="98"/>
+      <c r="B140" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="C140" s="97"/>
+      <c r="D140" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="E140" s="82"/>
+      <c r="F140" s="82"/>
+      <c r="G140" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="H140" s="48"/>
+      <c r="I140" s="48"/>
       <c r="J140" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="30">
         <v>3</v>
       </c>
-      <c r="B141" s="80" t="s">
-        <v>105</v>
-      </c>
-      <c r="C141" s="80"/>
-      <c r="D141" s="120" t="s">
-        <v>127</v>
-      </c>
-      <c r="E141" s="120"/>
-      <c r="F141" s="120"/>
-      <c r="G141" s="84" t="s">
-        <v>99</v>
-      </c>
-      <c r="H141" s="99"/>
-      <c r="I141" s="99"/>
+      <c r="B141" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="C141" s="97"/>
+      <c r="D141" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="E141" s="101"/>
+      <c r="F141" s="101"/>
+      <c r="G141" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="H141" s="43"/>
+      <c r="I141" s="43"/>
       <c r="J141" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142" s="30">
         <v>4</v>
       </c>
-      <c r="B142" s="80" t="s">
-        <v>105</v>
-      </c>
-      <c r="C142" s="80"/>
-      <c r="D142" s="90" t="s">
-        <v>128</v>
-      </c>
-      <c r="E142" s="91"/>
-      <c r="F142" s="92"/>
-      <c r="G142" s="102" t="s">
-        <v>110</v>
-      </c>
-      <c r="H142" s="100"/>
-      <c r="I142" s="100"/>
+      <c r="B142" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="C142" s="97"/>
+      <c r="D142" s="98" t="s">
+        <v>124</v>
+      </c>
+      <c r="E142" s="99"/>
+      <c r="F142" s="100"/>
+      <c r="G142" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="H142" s="45"/>
+      <c r="I142" s="45"/>
       <c r="J142" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="144" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="159" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A159" s="25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A160" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="B160" s="64"/>
+      <c r="A160" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="B160" s="95"/>
       <c r="C160" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D160" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="E160" s="64"/>
+        <v>35</v>
+      </c>
+      <c r="D160" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="E160" s="95"/>
       <c r="F160" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
@@ -5881,24 +5853,24 @@
       <c r="J160" s="27"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A161" s="63" t="s">
+      <c r="A161" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="B161" s="95"/>
+      <c r="C161" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D161" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="B161" s="64"/>
-      <c r="C161" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D161" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="E161" s="64"/>
-      <c r="F161" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="G161" s="66"/>
-      <c r="H161" s="66"/>
-      <c r="I161" s="66"/>
-      <c r="J161" s="66"/>
+      <c r="E161" s="95"/>
+      <c r="F161" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="G161" s="96"/>
+      <c r="H161" s="96"/>
+      <c r="I161" s="96"/>
+      <c r="J161" s="96"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A162" s="27"/>
@@ -5913,12 +5885,12 @@
       <c r="J162" s="27"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A163" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="B163" s="57"/>
+      <c r="A163" s="88" t="s">
+        <v>40</v>
+      </c>
+      <c r="B163" s="89"/>
       <c r="C163" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D163" s="28"/>
       <c r="E163" s="28"/>
@@ -5941,71 +5913,71 @@
       <c r="J164" s="27"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A165" s="58" t="s">
+      <c r="A165" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="B165" s="89"/>
+      <c r="C165" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D165" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="B165" s="57"/>
-      <c r="C165" s="27" t="s">
+      <c r="E165" s="89"/>
+      <c r="F165" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="D165" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="E165" s="57"/>
-      <c r="F165" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="G165" s="59"/>
-      <c r="H165" s="59"/>
-      <c r="I165" s="59"/>
-      <c r="J165" s="60"/>
+      <c r="G165" s="91"/>
+      <c r="H165" s="91"/>
+      <c r="I165" s="91"/>
+      <c r="J165" s="92"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A166" s="28"/>
       <c r="B166" s="28"/>
       <c r="C166" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J166" s="27"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A167" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B167" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="C167" s="61"/>
-      <c r="D167" s="61"/>
-      <c r="E167" s="61"/>
-      <c r="F167" s="61"/>
-      <c r="H167" s="96"/>
+        <v>54</v>
+      </c>
+      <c r="B167" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="C167" s="93"/>
+      <c r="D167" s="93"/>
+      <c r="E167" s="93"/>
+      <c r="F167" s="93"/>
+      <c r="H167" s="46"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A168" s="30">
         <v>1</v>
       </c>
-      <c r="B168" s="54"/>
-      <c r="C168" s="54"/>
-      <c r="D168" s="54"/>
-      <c r="E168" s="54"/>
-      <c r="F168" s="54"/>
-      <c r="G168" s="101"/>
-      <c r="H168" s="79"/>
-      <c r="I168" s="79"/>
+      <c r="B168" s="86"/>
+      <c r="C168" s="86"/>
+      <c r="D168" s="86"/>
+      <c r="E168" s="86"/>
+      <c r="F168" s="86"/>
+      <c r="G168" s="49"/>
+      <c r="H168" s="27"/>
+      <c r="I168" s="27"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A169" s="30">
         <v>2</v>
       </c>
-      <c r="B169" s="54"/>
-      <c r="C169" s="54"/>
-      <c r="D169" s="54"/>
-      <c r="E169" s="54"/>
-      <c r="F169" s="54"/>
-      <c r="G169" s="79"/>
-      <c r="H169" s="79"/>
-      <c r="I169" s="79"/>
+      <c r="B169" s="86"/>
+      <c r="C169" s="86"/>
+      <c r="D169" s="86"/>
+      <c r="E169" s="86"/>
+      <c r="F169" s="86"/>
+      <c r="G169" s="27"/>
+      <c r="H169" s="27"/>
+      <c r="I169" s="27"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A170" s="27"/>
@@ -6021,218 +5993,351 @@
     </row>
     <row r="171" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A171" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B171" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B171" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="C171" s="87"/>
+      <c r="D171" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="E171" s="87"/>
+      <c r="F171" s="87"/>
+      <c r="G171" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C171" s="62"/>
-      <c r="D171" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="E171" s="62"/>
-      <c r="F171" s="62"/>
-      <c r="G171" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="H171" s="97"/>
-      <c r="I171" s="97"/>
-      <c r="J171" s="103" t="s">
-        <v>93</v>
+      <c r="H171" s="47"/>
+      <c r="I171" s="47"/>
+      <c r="J171" s="51" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A172" s="122">
+      <c r="A172" s="76">
         <v>1</v>
       </c>
-      <c r="B172" s="81" t="s">
+      <c r="B172" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="C172" s="80"/>
+      <c r="D172" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="E172" s="82"/>
+      <c r="F172" s="82"/>
+      <c r="G172" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="H172" s="40"/>
+      <c r="I172" s="40"/>
+      <c r="J172" s="76" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A173" s="77"/>
+      <c r="B173" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="C172" s="83"/>
-      <c r="D172" s="118" t="s">
+      <c r="C173" s="80"/>
+      <c r="D173" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="E173" s="82"/>
+      <c r="F173" s="82"/>
+      <c r="G173" s="84"/>
+      <c r="H173" s="48"/>
+      <c r="I173" s="48"/>
+      <c r="J173" s="77"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A174" s="78"/>
+      <c r="B174" s="79" t="s">
+        <v>127</v>
+      </c>
+      <c r="C174" s="80"/>
+      <c r="D174" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="E174" s="82"/>
+      <c r="F174" s="82"/>
+      <c r="G174" s="85"/>
+      <c r="H174" s="43"/>
+      <c r="I174" s="43"/>
+      <c r="J174" s="78"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A175" s="76">
+        <v>2</v>
+      </c>
+      <c r="B175" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="C175" s="80"/>
+      <c r="D175" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="E175" s="82"/>
+      <c r="F175" s="82"/>
+      <c r="G175" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="H175" s="45"/>
+      <c r="I175" s="45"/>
+      <c r="J175" s="76" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A176" s="77"/>
+      <c r="B176" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="C176" s="80"/>
+      <c r="D176" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="E176" s="82"/>
+      <c r="F176" s="82"/>
+      <c r="G176" s="84"/>
+      <c r="H176" s="43"/>
+      <c r="I176" s="43"/>
+      <c r="J176" s="77"/>
+    </row>
+    <row r="177" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A177" s="78"/>
+      <c r="B177" s="79" t="s">
+        <v>127</v>
+      </c>
+      <c r="C177" s="80"/>
+      <c r="D177" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="E177" s="82"/>
+      <c r="F177" s="82"/>
+      <c r="G177" s="85"/>
+      <c r="H177" s="42"/>
+      <c r="I177" s="42"/>
+      <c r="J177" s="78"/>
+    </row>
+    <row r="178" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A178" s="76">
+        <v>7</v>
+      </c>
+      <c r="B178" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="C178" s="80"/>
+      <c r="D178" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="E178" s="82"/>
+      <c r="F178" s="82"/>
+      <c r="G178" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="E172" s="65"/>
-      <c r="F172" s="65"/>
-      <c r="G172" s="125" t="s">
-        <v>133</v>
-      </c>
-      <c r="H172" s="78"/>
-      <c r="I172" s="78"/>
-      <c r="J172" s="122" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A173" s="123"/>
-      <c r="B173" s="81" t="s">
-        <v>112</v>
-      </c>
-      <c r="C173" s="83"/>
-      <c r="D173" s="118" t="s">
-        <v>130</v>
-      </c>
-      <c r="E173" s="65"/>
-      <c r="F173" s="65"/>
-      <c r="G173" s="126"/>
-      <c r="H173" s="98"/>
-      <c r="I173" s="98"/>
-      <c r="J173" s="123"/>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A174" s="124"/>
-      <c r="B174" s="81" t="s">
-        <v>131</v>
-      </c>
-      <c r="C174" s="83"/>
-      <c r="D174" s="118" t="s">
-        <v>130</v>
-      </c>
-      <c r="E174" s="65"/>
-      <c r="F174" s="65"/>
-      <c r="G174" s="127"/>
-      <c r="H174" s="99"/>
-      <c r="I174" s="99"/>
-      <c r="J174" s="124"/>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A175" s="122">
-        <v>2</v>
-      </c>
-      <c r="B175" s="81" t="s">
+      <c r="H178" s="42"/>
+      <c r="I178" s="42"/>
+      <c r="J178" s="76" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A179" s="77"/>
+      <c r="B179" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="C175" s="83"/>
-      <c r="D175" s="118" t="s">
-        <v>132</v>
-      </c>
-      <c r="E175" s="65"/>
-      <c r="F175" s="65"/>
-      <c r="G175" s="125" t="s">
-        <v>133</v>
-      </c>
-      <c r="H175" s="100"/>
-      <c r="I175" s="100"/>
-      <c r="J175" s="122" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A176" s="123"/>
-      <c r="B176" s="81" t="s">
-        <v>112</v>
-      </c>
-      <c r="C176" s="83"/>
-      <c r="D176" s="118" t="s">
-        <v>130</v>
-      </c>
-      <c r="E176" s="65"/>
-      <c r="F176" s="65"/>
-      <c r="G176" s="126"/>
-      <c r="H176" s="99"/>
-      <c r="I176" s="99"/>
-      <c r="J176" s="123"/>
-    </row>
-    <row r="177" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A177" s="124"/>
-      <c r="B177" s="81" t="s">
-        <v>131</v>
-      </c>
-      <c r="C177" s="83"/>
-      <c r="D177" s="118" t="s">
-        <v>130</v>
-      </c>
-      <c r="E177" s="65"/>
-      <c r="F177" s="65"/>
-      <c r="G177" s="127"/>
-      <c r="H177" s="85"/>
-      <c r="I177" s="85"/>
-      <c r="J177" s="124"/>
-    </row>
-    <row r="178" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A178" s="122">
-        <v>7</v>
-      </c>
-      <c r="B178" s="81" t="s">
-        <v>111</v>
-      </c>
-      <c r="C178" s="83"/>
-      <c r="D178" s="118" t="s">
-        <v>132</v>
-      </c>
-      <c r="E178" s="65"/>
-      <c r="F178" s="65"/>
-      <c r="G178" s="125" t="s">
-        <v>134</v>
-      </c>
-      <c r="H178" s="85"/>
-      <c r="I178" s="85"/>
-      <c r="J178" s="122" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A179" s="123"/>
-      <c r="B179" s="81" t="s">
-        <v>112</v>
-      </c>
-      <c r="C179" s="83"/>
-      <c r="D179" s="118" t="s">
-        <v>132</v>
-      </c>
-      <c r="E179" s="65"/>
-      <c r="F179" s="65"/>
-      <c r="G179" s="126"/>
-      <c r="H179" s="85"/>
-      <c r="I179" s="85"/>
-      <c r="J179" s="123"/>
+      <c r="C179" s="80"/>
+      <c r="D179" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="E179" s="82"/>
+      <c r="F179" s="82"/>
+      <c r="G179" s="84"/>
+      <c r="H179" s="42"/>
+      <c r="I179" s="42"/>
+      <c r="J179" s="77"/>
     </row>
     <row r="180" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A180" s="124"/>
-      <c r="B180" s="81" t="s">
-        <v>131</v>
-      </c>
-      <c r="C180" s="83"/>
-      <c r="D180" s="118" t="s">
-        <v>132</v>
-      </c>
-      <c r="E180" s="65"/>
-      <c r="F180" s="65"/>
-      <c r="G180" s="127"/>
-      <c r="H180" s="85"/>
-      <c r="I180" s="85"/>
-      <c r="J180" s="124"/>
+      <c r="A180" s="78"/>
+      <c r="B180" s="79" t="s">
+        <v>127</v>
+      </c>
+      <c r="C180" s="80"/>
+      <c r="D180" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="E180" s="82"/>
+      <c r="F180" s="82"/>
+      <c r="G180" s="85"/>
+      <c r="H180" s="42"/>
+      <c r="I180" s="42"/>
+      <c r="J180" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="202">
-    <mergeCell ref="A178:A180"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="D178:F178"/>
-    <mergeCell ref="G178:G180"/>
-    <mergeCell ref="J178:J180"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="D179:F179"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="D180:F180"/>
-    <mergeCell ref="A175:A177"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="D175:F175"/>
-    <mergeCell ref="G175:G177"/>
-    <mergeCell ref="J175:J177"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="D176:F176"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="D177:F177"/>
-    <mergeCell ref="G172:G174"/>
-    <mergeCell ref="J172:J174"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="D173:F173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="D174:F174"/>
-    <mergeCell ref="B168:F168"/>
-    <mergeCell ref="B169:F169"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="D171:F171"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="F25:J26"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="F97:J97"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:J101"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="G108:G110"/>
+    <mergeCell ref="J108:J110"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="G111:G113"/>
+    <mergeCell ref="J111:J113"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:F111"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="F128:J128"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="F132:J132"/>
+    <mergeCell ref="G114:G116"/>
+    <mergeCell ref="J114:J116"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="D139:F139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="D140:F140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="B136:F136"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="D138:F138"/>
     <mergeCell ref="A172:A174"/>
     <mergeCell ref="B172:C172"/>
     <mergeCell ref="D172:F172"/>
@@ -6246,167 +6351,34 @@
     <mergeCell ref="A161:B161"/>
     <mergeCell ref="D161:E161"/>
     <mergeCell ref="F161:J161"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="D139:F139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="D140:F140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="D141:F141"/>
-    <mergeCell ref="B134:F134"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="B136:F136"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="D138:F138"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="F128:J128"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="F132:J132"/>
-    <mergeCell ref="G114:G116"/>
-    <mergeCell ref="J114:J116"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="G108:G110"/>
-    <mergeCell ref="J108:J110"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="G111:G113"/>
-    <mergeCell ref="J111:J113"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="D113:F113"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D114:F114"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="D109:F109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="D111:F111"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:J101"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="F97:J97"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="F25:J26"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="G172:G174"/>
+    <mergeCell ref="J172:J174"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="D173:F173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="D174:F174"/>
+    <mergeCell ref="B168:F168"/>
+    <mergeCell ref="B169:F169"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="D171:F171"/>
+    <mergeCell ref="A175:A177"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="D175:F175"/>
+    <mergeCell ref="G175:G177"/>
+    <mergeCell ref="J175:J177"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="D176:F176"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="D177:F177"/>
+    <mergeCell ref="A178:A180"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="D178:F178"/>
+    <mergeCell ref="G178:G180"/>
+    <mergeCell ref="J178:J180"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="D179:F179"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="D180:F180"/>
   </mergeCells>
   <pageMargins left="1.1811023622047245" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -6414,21 +6386,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D27483CF1B63FA4AA03D15E9EA85AD57" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dc40f05d5172330021a6e9de5317fd1d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c078926d-f3db-4b74-bbd0-f33b483d4b1e" xmlns:ns4="806a97cf-37b5-43d8-9f6a-27e74bb9243f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e98100bc02576a7c959853f71e43f81a" ns3:_="" ns4:_="">
     <xsd:import namespace="c078926d-f3db-4b74-bbd0-f33b483d4b1e"/>
@@ -6645,32 +6602,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8655864D-7A2A-4402-AA52-01C6DA779FC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="806a97cf-37b5-43d8-9f6a-27e74bb9243f"/>
-    <ds:schemaRef ds:uri="c078926d-f3db-4b74-bbd0-f33b483d4b1e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6913AF88-A569-4E93-8BD1-0040FA9C021A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E2B2261-6191-43A6-8C41-B739157DC3A6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6687,4 +6634,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6913AF88-A569-4E93-8BD1-0040FA9C021A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8655864D-7A2A-4402-AA52-01C6DA779FC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="806a97cf-37b5-43d8-9f6a-27e74bb9243f"/>
+    <ds:schemaRef ds:uri="c078926d-f3db-4b74-bbd0-f33b483d4b1e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>